--- a/data/oia/oia-activities.xlsx
+++ b/data/oia/oia-activities.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SA\Project\B4W-19-01-CO-H2O\Analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SA\Project\B4W-19-01-CO-H2O\Analysis\data\oia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6818B6-4D69-44B4-8BBE-D508C1EC4FA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA010C23-EED8-4B6F-841C-DE8FC4E19398}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="3135" windowWidth="20385" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="4170" windowWidth="15960" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -642,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC9D545-0AC0-46D8-87EE-8CC3A8808601}">
   <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -706,9 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1097,7 +1095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722E72D4-EFA5-4319-8449-00F2BA5A6F25}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
